--- a/savedModel/modelKNN/my_excel_file_PIC.xlsx
+++ b/savedModel/modelKNN/my_excel_file_PIC.xlsx
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1389,13 +1389,13 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -1784,10 +1784,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1796,16 +1796,16 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -1876,22 +1876,22 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -1986,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -2054,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2173,16 +2173,16 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -2265,13 +2265,13 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>566</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2336,13 +2336,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2351,28 +2351,28 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2452,16 +2452,16 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>518</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -2473,16 +2473,16 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2538,28 +2538,28 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2636,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2651,19 +2651,19 @@
         <v>0</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -2680,10 +2680,10 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2692,16 +2692,16 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -2746,16 +2746,16 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2808,10 +2808,10 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -2838,27 +2838,27 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC27">
         <v>0</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:30">
       <c r="A28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2909,10 +2909,10 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -2927,16 +2927,16 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>518</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -2945,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3019,25 +3019,25 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA29">
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="AC29">
         <v>0</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3075,16 +3075,16 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -3099,13 +3099,13 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W31">
         <v>0</v>
@@ -3209,19 +3209,19 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC31">
         <v>0</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/savedModel/modelKNN/my_excel_file_PIC.xlsx
+++ b/savedModel/modelKNN/my_excel_file_PIC.xlsx
@@ -466,7 +466,7 @@
     </row>
     <row r="2" spans="1:30">
       <c r="A2">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -561,13 +561,13 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -650,31 +650,31 @@
     </row>
     <row r="4" spans="1:30">
       <c r="A4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>563</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>3</v>
-      </c>
-      <c r="C4">
-        <v>535</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -748,28 +748,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>487</v>
+        <v>526</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
         <v>4</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1030,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1131,13 +1131,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>447</v>
+        <v>481</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1211,25 +1211,25 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>508</v>
+      </c>
+      <c r="J10">
         <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>11</v>
-      </c>
-      <c r="I10">
-        <v>470</v>
-      </c>
-      <c r="J10">
-        <v>45</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1309,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -1671,20 +1671,20 @@
         <v>0</v>
       </c>
       <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>1</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
       <c r="I15">
         <v>0</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -1784,10 +1784,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1796,16 +1796,16 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -1876,22 +1876,22 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -1986,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="R18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -2054,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2149,10 +2149,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2173,16 +2173,16 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -2265,13 +2265,13 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2336,13 +2336,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2351,43 +2351,43 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S22">
         <v>6</v>
       </c>
       <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>532</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
         <v>1</v>
       </c>
-      <c r="U22">
-        <v>511</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
         <v>1</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -2410,79 +2410,79 @@
         <v>0</v>
       </c>
       <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>543</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
         <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>7</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>2</v>
-      </c>
-      <c r="V23">
-        <v>518</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>11</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>2</v>
-      </c>
-      <c r="AC23">
-        <v>6</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2538,28 +2538,28 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
         <v>7</v>
       </c>
-      <c r="T24">
-        <v>2</v>
-      </c>
-      <c r="U24">
-        <v>2</v>
-      </c>
       <c r="V24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="X24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2636,34 +2636,34 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X25">
-        <v>520</v>
+        <v>551</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -2677,31 +2677,31 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="Z26">
         <v>1</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -2775,90 +2775,90 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
         <v>1</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>3</v>
+      </c>
+      <c r="Z27">
+        <v>487</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
         <v>1</v>
       </c>
-      <c r="P27">
-        <v>4</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>12</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>4</v>
-      </c>
-      <c r="Z27">
-        <v>454</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>21</v>
-      </c>
       <c r="AC27">
         <v>0</v>
       </c>
       <c r="AD27">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:30">
       <c r="A28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2909,10 +2909,10 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -2924,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -2945,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="AD28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3019,25 +3019,25 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA29">
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>495</v>
+        <v>534</v>
       </c>
       <c r="AC29">
         <v>0</v>
       </c>
       <c r="AD29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3075,16 +3075,16 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -3099,13 +3099,13 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
       <c r="V30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="AC30">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -3146,59 +3146,59 @@
         <v>0</v>
       </c>
       <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
         <v>2</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>14</v>
-      </c>
       <c r="W31">
         <v>0</v>
       </c>
@@ -3209,19 +3209,19 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AA31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB31">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD31">
-        <v>450</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/savedModel/modelKNN/my_excel_file_PIC.xlsx
+++ b/savedModel/modelKNN/my_excel_file_PIC.xlsx
@@ -466,7 +466,7 @@
     </row>
     <row r="2" spans="1:30">
       <c r="A2">
-        <v>518</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -561,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>371</v>
+        <v>51</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>563</v>
+        <v>83</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -748,17 +748,17 @@
         <v>0</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>73</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>526</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>11</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -766,10 +766,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>554</v>
+        <v>83</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>561</v>
+        <v>84</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1018,25 +1018,25 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>19</v>
-      </c>
       <c r="F8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>514</v>
+        <v>80</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1131,13 +1131,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>481</v>
+        <v>73</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1220,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>508</v>
+        <v>74</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1294,10 +1294,10 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1309,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>519</v>
+        <v>77</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1389,13 +1389,13 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>572</v>
+        <v>86</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>592</v>
+        <v>88</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>574</v>
+        <v>86</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1683,25 +1683,25 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>541</v>
+        <v>79</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>547</v>
+        <v>81</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>533</v>
+        <v>79</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>523</v>
+        <v>78</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>558</v>
+        <v>83</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2149,10 +2149,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>534</v>
+        <v>80</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>561</v>
+        <v>85</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2360,13 +2360,13 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T22">
         <v>0</v>
       </c>
       <c r="U22">
-        <v>532</v>
+        <v>81</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>543</v>
+        <v>81</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="AC23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -2520,46 +2520,46 @@
         <v>0</v>
       </c>
       <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>82</v>
+      </c>
+      <c r="X24">
         <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>7</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>541</v>
-      </c>
-      <c r="X24">
-        <v>7</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2642,16 +2642,16 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
       <c r="W25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>551</v>
+        <v>82</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2677,28 +2677,28 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2746,16 +2746,16 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>494</v>
+        <v>75</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -2778,13 +2778,13 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -2838,10 +2838,10 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>487</v>
+        <v>71</v>
       </c>
       <c r="AA27">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>527</v>
+        <v>75</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>534</v>
+        <v>80</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="AC30">
-        <v>553</v>
+        <v>82</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W31">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AA31">
         <v>0</v>
@@ -3218,10 +3218,10 @@
         <v>1</v>
       </c>
       <c r="AC31">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>494</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
